--- a/Laba6/Brundown_Chart.xlsx
+++ b/Laba6/Brundown_Chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34350" windowHeight="17730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34350" windowHeight="17730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -232,15 +232,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +243,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -304,13 +304,19 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="127000" cap="sq">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -356,13 +362,19 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="127000" cap="sq">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -408,13 +420,19 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="127000" cap="sq">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -460,24 +478,31 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -534,26 +559,29 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:round/>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -610,13 +638,19 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -714,9 +748,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -732,9 +767,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -742,15 +776,14 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -778,9 +811,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -796,9 +830,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -812,9 +845,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -850,11 +882,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -922,56 +957,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -979,16 +1004,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -998,23 +1022,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1022,63 +1041,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1102,21 +1181,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1126,20 +1202,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1151,14 +1226,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1170,14 +1244,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1189,14 +1262,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1208,9 +1275,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1227,9 +1295,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1241,14 +1310,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1260,14 +1328,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1279,27 +1346,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1307,9 +1373,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1319,14 +1384,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1338,12 +1402,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1352,14 +1415,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1368,9 +1432,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1380,17 +1443,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1402,37 +1466,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1441,16 +1498,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1745,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1756,19 +1813,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1781,173 +1838,173 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1">
         <f>SUM(D2:D16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="1">
         <f>SUM(E2:E16)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1996,275 +2053,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="1">
         <f xml:space="preserve"> SUMIF(backlog!D2:D16, 0, backlog!C2:C16)</f>
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <f>$B2-$J$2</f>
         <v>-2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <f>IF($B2&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B2, backlog!$C$2:$C$16),"")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <f>IF($B2&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B2, backlog!$C$2:$C$16),"")</f>
         <v>6</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <f>IF($B2&lt;=$J$2,J1-C2)</f>
         <v>6</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <f>IF($C2&lt;&gt;"",-$D2 + 6, "")</f>
         <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="1">
         <f xml:space="preserve"> MAX(backlog!E2:E6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <f t="shared" ref="A3:A9" si="0">$B3-$J$2</f>
         <v>-1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <f>IF($B3&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B3, backlog!$C$2:$C$16),"")</f>
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <f>IF($B3&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B3, backlog!$C$2:$C$16),"")</f>
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <f>IF($B3&lt;=$J$2,$E2-C3)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <f>IF($C3&lt;&gt;"",-$D3 + $F2, "")</f>
         <v>-2</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="1">
         <f xml:space="preserve"> AVERAGE(C3:C13)</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <f>IF($B4&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B4, backlog!$C$2:$C$16),"")</f>
         <v>3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <f>IF($B4&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B4, backlog!$C$2:$C$16),"")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <f>IF($B4&lt;=$J$2,$E3-C4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <f>IF($C4&lt;&gt;"",-$D4 + $F3, "")</f>
         <v>-2</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="1">
         <f xml:space="preserve"> AVERAGE(D3:D13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="8" t="str">
         <f>IF($B5&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B5,backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="8" t="str">
         <f>IF($B5&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B5, backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="6" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="3">
         <f>J1-SUM(C3:C13)+SUM(D3:D13)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="8" t="str">
         <f>IF($B6&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B6,backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="8" t="str">
         <f>IF($B6&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B6, backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="8" t="str">
         <f>IF($B7&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B7,backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="8" t="str">
         <f>IF($B7&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B7, backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="8" t="str">
         <f>IF($B8&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B8,backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="8" t="str">
         <f>IF($B8&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B8, backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="8" t="str">
         <f>IF($B9&lt;=$J$2,SUMIF(backlog!$E$2:$E$16, $B9,backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="8" t="str">
         <f>IF($B9&lt;=$J$2,SUMIF(backlog!$D$2:$D$16, $B9, backlog!$C$2:$C$16),"")</f>
         <v/>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2282,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Laba6/Brundown_Chart.xlsx
+++ b/Laba6/Brundown_Chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34350" windowHeight="17730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34350" windowHeight="17730"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2339,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
